--- a/nomeados.xlsx
+++ b/nomeados.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ead\Desktop\KARYTHON\DBAJoin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ead\Desktop\KARYTHON\pre_projeto_nomeados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD83CDA1-84A7-4959-A575-006A3647BDFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9FD8DB-E709-431E-89D2-CF21A3586032}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="502">
   <si>
     <t>Artist of the Year</t>
   </si>
@@ -1654,7 +1655,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -1821,6 +1822,172 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF272727"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F6F6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF272727"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F6F6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF272727"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F6F6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF272727"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F6F6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF272727"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F6F6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF272727"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1835,13 +2002,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F25AB6-A22A-46B0-8FC1-E260C444E90E}" name="Tabela2" displayName="Tabela2" ref="A1:D191" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F25AB6-A22A-46B0-8FC1-E260C444E90E}" name="Tabela2" displayName="Tabela2" ref="A1:D191" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:D191" xr:uid="{E81FC45B-9F32-44E6-AB54-9196A0FCE196}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FA43E102-9F61-4CCC-AB53-73D54C87C799}" name="Coluna1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E18FEFCD-1C4F-4704-AE53-C5685F8BB9ED}" name="Coluna2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A4B27BD0-E097-46F8-8C78-78C2E94EC344}" name="Coluna3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9517522C-1616-425E-8615-8CE283CF4A30}" name="Coluna4" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FA43E102-9F61-4CCC-AB53-73D54C87C799}" name="Coluna1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E18FEFCD-1C4F-4704-AE53-C5685F8BB9ED}" name="Coluna2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A4B27BD0-E097-46F8-8C78-78C2E94EC344}" name="Coluna3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9517522C-1616-425E-8615-8CE283CF4A30}" name="Coluna4" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCF0A000-709E-4B0C-B1F9-7638ACDF6429}" name="Tabela1" displayName="Tabela1" ref="A1:D191" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="6">
+  <autoFilter ref="A1:D191" xr:uid="{B6A20F64-F69F-4CE2-A7E0-2D7B618F0CBD}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{18F1874E-7FC6-4B78-9D77-F62B20A99CE1}" name="Coluna1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9F1967E2-C644-4909-96D0-816FE482630A}" name="Coluna2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D285395A-F30E-4B0F-80F5-CE5D19526B4B}" name="Coluna3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AE78421E-FFA0-43F9-8C62-51E2D7980892}" name="Coluna4" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2112,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4670,6 +4850,2575 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2714BB-A197-44A8-BC31-F34274B7BC96}">
+  <dimension ref="A1:D191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C186" s="1"/>
+      <c r="D186" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/nomeados.xlsx
+++ b/nomeados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ead\Desktop\KARYTHON\pre_projeto_nomeados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9FD8DB-E709-431E-89D2-CF21A3586032}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5118A-E4E4-4D7D-A0E9-F6D04FC8D016}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="513">
   <si>
     <t>Artist of the Year</t>
   </si>
@@ -1560,6 +1560,39 @@
   </si>
   <si>
     <t>Coluna4</t>
+  </si>
+  <si>
+    <t>vinicius</t>
+  </si>
+  <si>
+    <t>Coluna5</t>
+  </si>
+  <si>
+    <t>vitoria</t>
+  </si>
+  <si>
+    <t>tatiene</t>
+  </si>
+  <si>
+    <t>pedro paulo</t>
+  </si>
+  <si>
+    <t>luiz eduardo</t>
+  </si>
+  <si>
+    <t>lucas</t>
+  </si>
+  <si>
+    <t>josivan</t>
+  </si>
+  <si>
+    <t>joao vitor</t>
+  </si>
+  <si>
+    <t>flavio</t>
+  </si>
+  <si>
+    <t>artur</t>
   </si>
 </sst>
 </file>
@@ -1655,32 +1688,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF272727"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -1867,6 +1875,56 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF272727"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F6F6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF272727"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFF6F6F6"/>
         </patternFill>
       </fill>
@@ -2002,26 +2060,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F25AB6-A22A-46B0-8FC1-E260C444E90E}" name="Tabela2" displayName="Tabela2" ref="A1:D191" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F25AB6-A22A-46B0-8FC1-E260C444E90E}" name="Tabela2" displayName="Tabela2" ref="A1:D191" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:D191" xr:uid="{E81FC45B-9F32-44E6-AB54-9196A0FCE196}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FA43E102-9F61-4CCC-AB53-73D54C87C799}" name="Coluna1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E18FEFCD-1C4F-4704-AE53-C5685F8BB9ED}" name="Coluna2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A4B27BD0-E097-46F8-8C78-78C2E94EC344}" name="Coluna3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{9517522C-1616-425E-8615-8CE283CF4A30}" name="Coluna4" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{FA43E102-9F61-4CCC-AB53-73D54C87C799}" name="Coluna1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E18FEFCD-1C4F-4704-AE53-C5685F8BB9ED}" name="Coluna2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A4B27BD0-E097-46F8-8C78-78C2E94EC344}" name="Coluna3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9517522C-1616-425E-8615-8CE283CF4A30}" name="Coluna4" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCF0A000-709E-4B0C-B1F9-7638ACDF6429}" name="Tabela1" displayName="Tabela1" ref="A1:D191" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="6">
-  <autoFilter ref="A1:D191" xr:uid="{B6A20F64-F69F-4CE2-A7E0-2D7B618F0CBD}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18F1874E-7FC6-4B78-9D77-F62B20A99CE1}" name="Coluna1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9F1967E2-C644-4909-96D0-816FE482630A}" name="Coluna2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D285395A-F30E-4B0F-80F5-CE5D19526B4B}" name="Coluna3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{AE78421E-FFA0-43F9-8C62-51E2D7980892}" name="Coluna4" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCF0A000-709E-4B0C-B1F9-7638ACDF6429}" name="Tabela1" displayName="Tabela1" ref="A1:E191" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:E191" xr:uid="{B6A20F64-F69F-4CE2-A7E0-2D7B618F0CBD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{18F1874E-7FC6-4B78-9D77-F62B20A99CE1}" name="Coluna1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9F1967E2-C644-4909-96D0-816FE482630A}" name="Coluna2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D285395A-F30E-4B0F-80F5-CE5D19526B4B}" name="Coluna3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AE78421E-FFA0-43F9-8C62-51E2D7980892}" name="Coluna4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B3B86F59-C3BA-4786-8977-0EAD52760947}" name="Coluna5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4859,10 +4918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2714BB-A197-44A8-BC31-F34274B7BC96}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C127" workbookViewId="0">
+      <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,9 +4930,10 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>498</v>
       </c>
@@ -4886,8 +4946,11 @@
       <c r="D1" s="6" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>341</v>
       </c>
@@ -4898,8 +4961,11 @@
       <c r="D2" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>341</v>
       </c>
@@ -4910,8 +4976,11 @@
       <c r="D3" s="5" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>341</v>
       </c>
@@ -4922,8 +4991,11 @@
       <c r="D4" s="6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>341</v>
       </c>
@@ -4934,8 +5006,11 @@
       <c r="D5" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>341</v>
       </c>
@@ -4946,8 +5021,11 @@
       <c r="D6" s="6" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>341</v>
       </c>
@@ -4958,8 +5036,11 @@
       <c r="D7" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>341</v>
       </c>
@@ -4970,8 +5051,11 @@
       <c r="D8" s="6" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>341</v>
       </c>
@@ -4982,8 +5066,11 @@
       <c r="D9" s="5" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>341</v>
       </c>
@@ -4994,8 +5081,11 @@
       <c r="D10" s="6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -5006,8 +5096,11 @@
       <c r="D11" s="5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>361</v>
       </c>
@@ -5016,8 +5109,11 @@
       <c r="D12" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>361</v>
       </c>
@@ -5026,8 +5122,11 @@
       <c r="D13" s="5" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>361</v>
       </c>
@@ -5036,8 +5135,11 @@
       <c r="D14" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>361</v>
       </c>
@@ -5046,8 +5148,11 @@
       <c r="D15" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>361</v>
       </c>
@@ -5056,8 +5161,11 @@
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>365</v>
       </c>
@@ -5066,8 +5174,11 @@
       <c r="D17" s="5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>365</v>
       </c>
@@ -5076,8 +5187,11 @@
       <c r="D18" s="6" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>365</v>
       </c>
@@ -5086,8 +5200,11 @@
       <c r="D19" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>365</v>
       </c>
@@ -5096,8 +5213,11 @@
       <c r="D20" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>365</v>
       </c>
@@ -5106,8 +5226,11 @@
       <c r="D21" s="5" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
@@ -5118,8 +5241,11 @@
       <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
@@ -5130,8 +5256,11 @@
       <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>0</v>
       </c>
@@ -5142,8 +5271,11 @@
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -5154,8 +5286,11 @@
       <c r="D25" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -5166,8 +5301,11 @@
       <c r="D26" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>198</v>
       </c>
@@ -5178,8 +5316,11 @@
       <c r="D27" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>198</v>
       </c>
@@ -5190,8 +5331,11 @@
       <c r="D28" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>198</v>
       </c>
@@ -5202,8 +5346,11 @@
       <c r="D29" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>198</v>
       </c>
@@ -5214,8 +5361,11 @@
       <c r="D30" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>198</v>
       </c>
@@ -5226,8 +5376,11 @@
       <c r="D31" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>235</v>
       </c>
@@ -5236,8 +5389,11 @@
       <c r="D32" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>235</v>
       </c>
@@ -5246,8 +5402,11 @@
       <c r="D33" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>235</v>
       </c>
@@ -5256,8 +5415,11 @@
       <c r="D34" s="6" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>235</v>
       </c>
@@ -5266,8 +5428,11 @@
       <c r="D35" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>235</v>
       </c>
@@ -5276,8 +5441,11 @@
       <c r="D36" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>257</v>
       </c>
@@ -5290,8 +5458,11 @@
       <c r="D37" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>257</v>
       </c>
@@ -5304,8 +5475,11 @@
       <c r="D38" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>257</v>
       </c>
@@ -5318,8 +5492,11 @@
       <c r="D39" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>257</v>
       </c>
@@ -5332,8 +5509,11 @@
       <c r="D40" s="6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>257</v>
       </c>
@@ -5346,8 +5526,11 @@
       <c r="D41" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>304</v>
       </c>
@@ -5360,8 +5543,11 @@
       <c r="D42" s="6" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>304</v>
       </c>
@@ -5374,8 +5560,11 @@
       <c r="D43" s="5" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>304</v>
       </c>
@@ -5388,8 +5577,11 @@
       <c r="D44" s="6" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>304</v>
       </c>
@@ -5402,8 +5594,11 @@
       <c r="D45" s="5" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>304</v>
       </c>
@@ -5416,8 +5611,11 @@
       <c r="D46" s="6" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>221</v>
       </c>
@@ -5430,8 +5628,11 @@
       <c r="D47" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>221</v>
       </c>
@@ -5444,8 +5645,11 @@
       <c r="D48" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>221</v>
       </c>
@@ -5458,8 +5662,11 @@
       <c r="D49" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>221</v>
       </c>
@@ -5472,8 +5679,11 @@
       <c r="D50" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>221</v>
       </c>
@@ -5486,8 +5696,11 @@
       <c r="D51" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>157</v>
       </c>
@@ -5500,8 +5713,11 @@
       <c r="D52" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>157</v>
       </c>
@@ -5514,8 +5730,11 @@
       <c r="D53" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>157</v>
       </c>
@@ -5528,8 +5747,11 @@
       <c r="D54" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E54" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>157</v>
       </c>
@@ -5542,8 +5764,11 @@
       <c r="D55" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>157</v>
       </c>
@@ -5556,8 +5781,11 @@
       <c r="D56" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>386</v>
       </c>
@@ -5570,8 +5798,11 @@
       <c r="D57" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E57" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>386</v>
       </c>
@@ -5584,8 +5815,11 @@
       <c r="D58" s="6" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E58" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>386</v>
       </c>
@@ -5598,8 +5832,11 @@
       <c r="D59" s="5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>386</v>
       </c>
@@ -5612,8 +5849,11 @@
       <c r="D60" s="6" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>386</v>
       </c>
@@ -5626,8 +5866,11 @@
       <c r="D61" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>26</v>
       </c>
@@ -5640,8 +5883,11 @@
       <c r="D62" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E62" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>26</v>
       </c>
@@ -5654,8 +5900,11 @@
       <c r="D63" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E63" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>26</v>
       </c>
@@ -5668,8 +5917,11 @@
       <c r="D64" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E64" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>26</v>
       </c>
@@ -5682,8 +5934,11 @@
       <c r="D65" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E65" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>26</v>
       </c>
@@ -5696,8 +5951,11 @@
       <c r="D66" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>88</v>
       </c>
@@ -5710,8 +5968,11 @@
       <c r="D67" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>88</v>
       </c>
@@ -5724,8 +5985,11 @@
       <c r="D68" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>88</v>
       </c>
@@ -5738,8 +6002,11 @@
       <c r="D69" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>88</v>
       </c>
@@ -5752,8 +6019,11 @@
       <c r="D70" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E70" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>88</v>
       </c>
@@ -5766,8 +6036,11 @@
       <c r="D71" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E71" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>460</v>
       </c>
@@ -5780,8 +6053,11 @@
       <c r="D72" s="6" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E72" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>460</v>
       </c>
@@ -5794,8 +6070,11 @@
       <c r="D73" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E73" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>460</v>
       </c>
@@ -5808,8 +6087,11 @@
       <c r="D74" s="6" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E74" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>460</v>
       </c>
@@ -5822,8 +6104,11 @@
       <c r="D75" s="5" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E75" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>460</v>
       </c>
@@ -5836,8 +6121,11 @@
       <c r="D76" s="6" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E76" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>128</v>
       </c>
@@ -5850,8 +6138,11 @@
       <c r="D77" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>128</v>
       </c>
@@ -5864,8 +6155,11 @@
       <c r="D78" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E78" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>128</v>
       </c>
@@ -5878,8 +6172,11 @@
       <c r="D79" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E79" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>128</v>
       </c>
@@ -5892,8 +6189,11 @@
       <c r="D80" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E80" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -5906,8 +6206,11 @@
       <c r="D81" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E81" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>417</v>
       </c>
@@ -5920,8 +6223,11 @@
       <c r="D82" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E82" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>417</v>
       </c>
@@ -5934,8 +6240,11 @@
       <c r="D83" s="5" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E83" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>417</v>
       </c>
@@ -5948,8 +6257,11 @@
       <c r="D84" s="6" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E84" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>417</v>
       </c>
@@ -5962,8 +6274,11 @@
       <c r="D85" s="5" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>417</v>
       </c>
@@ -5976,8 +6291,11 @@
       <c r="D86" s="6" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E86" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>485</v>
       </c>
@@ -5990,8 +6308,11 @@
       <c r="D87" s="5" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E87" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>485</v>
       </c>
@@ -6004,8 +6325,11 @@
       <c r="D88" s="6" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E88" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>485</v>
       </c>
@@ -6018,8 +6342,11 @@
       <c r="D89" s="5" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E89" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>485</v>
       </c>
@@ -6032,8 +6359,11 @@
       <c r="D90" s="6" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>485</v>
       </c>
@@ -6046,8 +6376,11 @@
       <c r="D91" s="5" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E91" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>41</v>
       </c>
@@ -6060,8 +6393,11 @@
       <c r="D92" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E92" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>41</v>
       </c>
@@ -6074,8 +6410,11 @@
       <c r="D93" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E93" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>41</v>
       </c>
@@ -6088,8 +6427,11 @@
       <c r="D94" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E94" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>41</v>
       </c>
@@ -6102,8 +6444,11 @@
       <c r="D95" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>41</v>
       </c>
@@ -6116,8 +6461,11 @@
       <c r="D96" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="E96" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>241</v>
       </c>
@@ -6130,8 +6478,11 @@
       <c r="D97" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E97" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>241</v>
       </c>
@@ -6144,8 +6495,11 @@
       <c r="D98" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E98" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>241</v>
       </c>
@@ -6158,8 +6512,11 @@
       <c r="D99" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E99" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>241</v>
       </c>
@@ -6172,8 +6529,11 @@
       <c r="D100" s="6" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>241</v>
       </c>
@@ -6186,8 +6546,11 @@
       <c r="D101" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>288</v>
       </c>
@@ -6200,8 +6563,11 @@
       <c r="D102" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E102" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>288</v>
       </c>
@@ -6214,8 +6580,11 @@
       <c r="D103" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E103" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>288</v>
       </c>
@@ -6228,8 +6597,11 @@
       <c r="D104" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E104" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>288</v>
       </c>
@@ -6242,8 +6614,11 @@
       <c r="D105" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E105" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>288</v>
       </c>
@@ -6256,8 +6631,11 @@
       <c r="D106" s="6" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E106" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>206</v>
       </c>
@@ -6270,8 +6648,11 @@
       <c r="D107" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E107" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>206</v>
       </c>
@@ -6284,8 +6665,11 @@
       <c r="D108" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E108" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>206</v>
       </c>
@@ -6298,8 +6682,11 @@
       <c r="D109" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E109" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>206</v>
       </c>
@@ -6312,8 +6699,11 @@
       <c r="D110" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E110" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>206</v>
       </c>
@@ -6326,8 +6716,11 @@
       <c r="D111" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E111" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>141</v>
       </c>
@@ -6340,8 +6733,11 @@
       <c r="D112" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E112" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>141</v>
       </c>
@@ -6354,8 +6750,11 @@
       <c r="D113" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E113" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>141</v>
       </c>
@@ -6368,8 +6767,11 @@
       <c r="D114" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E114" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>141</v>
       </c>
@@ -6382,8 +6784,11 @@
       <c r="D115" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E115" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>141</v>
       </c>
@@ -6396,8 +6801,11 @@
       <c r="D116" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E116" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>370</v>
       </c>
@@ -6410,8 +6818,11 @@
       <c r="D117" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E117" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>370</v>
       </c>
@@ -6424,8 +6835,11 @@
       <c r="D118" s="6" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E118" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>370</v>
       </c>
@@ -6438,8 +6852,11 @@
       <c r="D119" s="5" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E119" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>370</v>
       </c>
@@ -6452,8 +6869,11 @@
       <c r="D120" s="6" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E120" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>370</v>
       </c>
@@ -6466,8 +6886,11 @@
       <c r="D121" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E121" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>10</v>
       </c>
@@ -6480,8 +6903,11 @@
       <c r="D122" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E122" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>10</v>
       </c>
@@ -6494,8 +6920,11 @@
       <c r="D123" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E123" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>10</v>
       </c>
@@ -6508,8 +6937,11 @@
       <c r="D124" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E124" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>10</v>
       </c>
@@ -6522,8 +6954,11 @@
       <c r="D125" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E125" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>10</v>
       </c>
@@ -6536,8 +6971,11 @@
       <c r="D126" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E126" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>72</v>
       </c>
@@ -6550,8 +6988,11 @@
       <c r="D127" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E127" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>72</v>
       </c>
@@ -6564,8 +7005,11 @@
       <c r="D128" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E128" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>72</v>
       </c>
@@ -6578,8 +7022,11 @@
       <c r="D129" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E129" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>72</v>
       </c>
@@ -6592,8 +7039,11 @@
       <c r="D130" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E130" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>72</v>
       </c>
@@ -6606,8 +7056,11 @@
       <c r="D131" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E131" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>444</v>
       </c>
@@ -6620,8 +7073,11 @@
       <c r="D132" s="6" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E132" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>444</v>
       </c>
@@ -6634,8 +7090,11 @@
       <c r="D133" s="5" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E133" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>444</v>
       </c>
@@ -6648,8 +7107,11 @@
       <c r="D134" s="6" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E134" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>444</v>
       </c>
@@ -6662,8 +7124,11 @@
       <c r="D135" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E135" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>444</v>
       </c>
@@ -6676,8 +7141,11 @@
       <c r="D136" s="6" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E136" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>112</v>
       </c>
@@ -6690,8 +7158,11 @@
       <c r="D137" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E137" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>112</v>
       </c>
@@ -6704,8 +7175,11 @@
       <c r="D138" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E138" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>112</v>
       </c>
@@ -6718,8 +7192,11 @@
       <c r="D139" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E139" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>112</v>
       </c>
@@ -6732,8 +7209,11 @@
       <c r="D140" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E140" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>112</v>
       </c>
@@ -6746,8 +7226,11 @@
       <c r="D141" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E141" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>401</v>
       </c>
@@ -6760,8 +7243,11 @@
       <c r="D142" s="6" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E142" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>401</v>
       </c>
@@ -6774,8 +7260,11 @@
       <c r="D143" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E143" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>401</v>
       </c>
@@ -6788,8 +7277,11 @@
       <c r="D144" s="6" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E144" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>401</v>
       </c>
@@ -6802,8 +7294,11 @@
       <c r="D145" s="5" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E145" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>401</v>
       </c>
@@ -6816,8 +7311,11 @@
       <c r="D146" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E146" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>474</v>
       </c>
@@ -6830,8 +7328,11 @@
       <c r="D147" s="5" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E147" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>474</v>
       </c>
@@ -6844,8 +7345,11 @@
       <c r="D148" s="6" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E148" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>474</v>
       </c>
@@ -6858,8 +7362,11 @@
       <c r="D149" s="5" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E149" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>474</v>
       </c>
@@ -6872,8 +7379,11 @@
       <c r="D150" s="6" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E150" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>474</v>
       </c>
@@ -6886,8 +7396,11 @@
       <c r="D151" s="5" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E151" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>57</v>
       </c>
@@ -6900,8 +7413,11 @@
       <c r="D152" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E152" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>57</v>
       </c>
@@ -6914,8 +7430,11 @@
       <c r="D153" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E153" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>57</v>
       </c>
@@ -6928,8 +7447,11 @@
       <c r="D154" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E154" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>57</v>
       </c>
@@ -6942,8 +7464,11 @@
       <c r="D155" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E155" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>57</v>
       </c>
@@ -6956,8 +7481,11 @@
       <c r="D156" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E156" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>187</v>
       </c>
@@ -6968,8 +7496,11 @@
       <c r="D157" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E157" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>187</v>
       </c>
@@ -6980,8 +7511,11 @@
       <c r="D158" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E158" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>187</v>
       </c>
@@ -6992,8 +7526,11 @@
       <c r="D159" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E159" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>187</v>
       </c>
@@ -7004,8 +7541,11 @@
       <c r="D160" s="6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E160" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>187</v>
       </c>
@@ -7016,8 +7556,11 @@
       <c r="D161" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E161" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>272</v>
       </c>
@@ -7030,8 +7573,11 @@
       <c r="D162" s="6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E162" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>272</v>
       </c>
@@ -7044,8 +7590,11 @@
       <c r="D163" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E163" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>272</v>
       </c>
@@ -7058,8 +7607,11 @@
       <c r="D164" s="6" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E164" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>272</v>
       </c>
@@ -7072,8 +7624,11 @@
       <c r="D165" s="5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E165" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>272</v>
       </c>
@@ -7086,8 +7641,11 @@
       <c r="D166" s="6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E166" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>318</v>
       </c>
@@ -7100,8 +7658,11 @@
       <c r="D167" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E167" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>318</v>
       </c>
@@ -7114,8 +7675,11 @@
       <c r="D168" s="6" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E168" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>318</v>
       </c>
@@ -7128,8 +7692,11 @@
       <c r="D169" s="5" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E169" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>318</v>
       </c>
@@ -7142,8 +7709,11 @@
       <c r="D170" s="6" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E170" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>318</v>
       </c>
@@ -7156,8 +7726,11 @@
       <c r="D171" s="5" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E171" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>328</v>
       </c>
@@ -7170,8 +7743,11 @@
       <c r="D172" s="6" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E172" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>328</v>
       </c>
@@ -7184,8 +7760,11 @@
       <c r="D173" s="5" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E173" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>328</v>
       </c>
@@ -7198,8 +7777,11 @@
       <c r="D174" s="6" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E174" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>328</v>
       </c>
@@ -7212,8 +7794,11 @@
       <c r="D175" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E175" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>328</v>
       </c>
@@ -7226,8 +7811,11 @@
       <c r="D176" s="6" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E176" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -7240,8 +7828,11 @@
       <c r="D177" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E177" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>171</v>
       </c>
@@ -7254,8 +7845,11 @@
       <c r="D178" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E178" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -7268,8 +7862,11 @@
       <c r="D179" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E179" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>171</v>
       </c>
@@ -7282,8 +7879,11 @@
       <c r="D180" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E180" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -7296,8 +7896,11 @@
       <c r="D181" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E181" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>101</v>
       </c>
@@ -7308,8 +7911,11 @@
       <c r="D182" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E182" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>101</v>
       </c>
@@ -7320,8 +7926,11 @@
       <c r="D183" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E183" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>101</v>
       </c>
@@ -7332,8 +7941,11 @@
       <c r="D184" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E184" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>101</v>
       </c>
@@ -7344,8 +7956,11 @@
       <c r="D185" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E185" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>101</v>
       </c>
@@ -7356,8 +7971,11 @@
       <c r="D186" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E186" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>433</v>
       </c>
@@ -7368,8 +7986,11 @@
       <c r="D187" s="5" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E187" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>433</v>
       </c>
@@ -7380,8 +8001,11 @@
       <c r="D188" s="6" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E188" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>433</v>
       </c>
@@ -7392,8 +8016,11 @@
       <c r="D189" s="5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E189" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>433</v>
       </c>
@@ -7404,8 +8031,11 @@
       <c r="D190" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E190" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>433</v>
       </c>
@@ -7415,6 +8045,9 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5" t="s">
         <v>443</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/nomeados.xlsx
+++ b/nomeados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ead\Desktop\KARYTHON\pre_projeto_nomeados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5118A-E4E4-4D7D-A0E9-F6D04FC8D016}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B9D810-B515-43C6-BB39-6B8B178B55DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1660,11 +1660,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
@@ -1682,6 +1697,12 @@
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -4920,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2714BB-A197-44A8-BC31-F34274B7BC96}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C127" workbookViewId="0">
-      <selection activeCell="E199" sqref="E199"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,7 +4950,7 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="135.42578125" customWidth="1"/>
     <col min="5" max="5" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6465,88 +6486,88 @@
         <v>508</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>241</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>241</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>241</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6557,13 +6578,13 @@
       <c r="B102" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6574,13 +6595,13 @@
       <c r="B103" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6591,13 +6612,13 @@
       <c r="B104" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6608,13 +6629,13 @@
       <c r="B105" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6625,30 +6646,30 @@
       <c r="B106" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6659,13 +6680,13 @@
       <c r="B108" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6676,30 +6697,30 @@
       <c r="B109" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>206</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6710,13 +6731,13 @@
       <c r="B111" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6727,13 +6748,13 @@
       <c r="B112" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6744,13 +6765,13 @@
       <c r="B113" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="7" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6761,13 +6782,13 @@
       <c r="B114" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="7" t="s">
         <v>508</v>
       </c>
     </row>
